--- a/SpiritZone/TestData/1000_TestScenarios.xlsx
+++ b/SpiritZone/TestData/1000_TestScenarios.xlsx
@@ -4655,15 +4655,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4686,7 +4692,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4694,17 +4716,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4725,37 +4746,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4769,20 +4760,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -4792,7 +4769,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4827,6 +4827,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4839,7 +4953,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4851,37 +4971,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4893,79 +4989,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4977,37 +5007,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5036,17 +5036,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5055,7 +5049,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5075,13 +5069,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5089,8 +5087,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5110,15 +5108,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -5133,12 +5122,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5156,130 +5156,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5637,9 +5637,9 @@
   <dimension ref="A1:M199"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G85" sqref="G85"/>
+      <selection pane="bottomLeft" activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -8278,7 +8278,7 @@
         <v>91</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
       <c r="H90" s="4" t="s">
         <v>21</v>
@@ -8307,7 +8307,7 @@
         <v>92</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
       <c r="H91" s="4" t="s">
         <v>21</v>
@@ -8336,7 +8336,7 @@
         <v>93</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
       <c r="H92" s="4" t="s">
         <v>21</v>
